--- a/mcmaster_excel/Metric_18-8_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Metric_18-8_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,79 +435,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Standard Head— Passivated 18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
+          <t>Standard Head— Passivated 18-8 Stainless Steel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -524,56 +534,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>91200A101</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$16.00</t>
-        </is>
-      </c>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,12 +586,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>91200A103</t>
+          <t>91200A101</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>$16.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -622,7 +600,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -637,7 +615,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -657,12 +635,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>91200A100</t>
+          <t>91200A103</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -671,7 +649,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -706,12 +684,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>91200A102</t>
+          <t>91200A100</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -720,7 +698,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -755,12 +733,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>91200A104</t>
+          <t>91200A102</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -769,7 +747,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,12 +782,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>91200A106</t>
+          <t>91200A104</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -818,7 +796,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,12 +831,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>91200A108</t>
+          <t>91200A106</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -867,7 +845,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -902,12 +880,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>91200A110</t>
+          <t>91200A108</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -916,73 +894,73 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>91200A110</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>91200A220</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1017,12 +995,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>91200A222</t>
+          <t>91200A220</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1031,7 +1009,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1066,12 +1044,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>91200A224</t>
+          <t>91200A222</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1080,7 +1058,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,12 +1093,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>91200A226</t>
+          <t>91200A224</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1129,73 +1107,73 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>91200A226</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>91200A111</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>13.60</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1230,12 +1208,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>91200A112</t>
+          <t>91200A111</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>13.60</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1244,7 +1222,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1279,12 +1257,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>91200A114</t>
+          <t>91200A112</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1293,7 +1271,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1328,12 +1306,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>91200A116</t>
+          <t>91200A114</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1342,7 +1320,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1377,12 +1355,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>91200A118</t>
+          <t>91200A116</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1391,7 +1369,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1426,12 +1404,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>91200A120</t>
+          <t>91200A118</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1440,7 +1418,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,12 +1453,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>91200A122</t>
+          <t>91200A120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13.69</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1489,7 +1467,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,12 +1502,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>91200A124</t>
+          <t>91200A122</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>13.69</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1538,73 +1516,73 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>91200A124</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>91200A128</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1639,12 +1617,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>91200A130</t>
+          <t>91200A128</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1653,7 +1631,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1688,12 +1666,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>91200A132</t>
+          <t>91200A130</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15.81</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1702,7 +1680,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,12 +1715,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>91200A134</t>
+          <t>91200A132</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>19.57</t>
+          <t>15.81</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1751,7 +1729,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,12 +1764,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>91200A136</t>
+          <t>91200A134</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1800,7 +1778,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1830,17 +1808,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>91200A140</t>
+          <t>91200A136</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1849,73 +1827,73 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>91200A140</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>91200A150</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1950,12 +1928,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>91200A152</t>
+          <t>91200A150</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1964,7 +1942,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1999,12 +1977,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>91200A154</t>
+          <t>91200A152</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2013,7 +1991,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2048,12 +2026,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>91200A156</t>
+          <t>91200A154</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2062,7 +2040,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,12 +2075,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>91200A159</t>
+          <t>91200A156</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>14.45</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2111,73 +2089,73 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>91200A159</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>91200A172</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>13.63</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2212,12 +2190,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>91200A174</t>
+          <t>91200A172</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>13.63</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2226,7 +2204,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2261,12 +2239,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>91200A176</t>
+          <t>91200A174</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2275,7 +2253,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2305,17 +2283,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>91200A178</t>
+          <t>91200A176</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2324,47 +2302,47 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>91200A180</t>
+          <t>91200A178</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>17.99</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2373,73 +2351,73 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>91200A180</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ISO 1580, DIN 85</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>91200A190</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>12.54</t>
-        </is>
-      </c>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2474,12 +2452,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>91200A194</t>
+          <t>91200A190</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2488,7 +2466,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2518,17 +2496,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>91200A198</t>
+          <t>91200A194</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2537,7 +2515,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2572,12 +2550,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>91200A203</t>
+          <t>91200A198</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2586,7 +2564,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2621,16 +2599,65 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>91200A208</t>
+          <t>91200A203</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ISO 1580, DIN 85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>91200A208</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2643,7 +2670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2652,132 +2679,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wide Head— 18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>97056A110</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$8.27</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
+          <t>Wide Head— 18-8 Stainless Steel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2812,12 +2813,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>97056A111</t>
+          <t>97056A110</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>$8.27</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2830,7 +2831,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2865,12 +2866,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>97056A112</t>
+          <t>97056A111</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2883,7 +2884,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2918,12 +2919,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>97056A113</t>
+          <t>97056A112</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -2936,47 +2937,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>97056A114</t>
+          <t>97056A113</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>14.85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -2989,7 +2990,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3024,12 +3025,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>97056A115</t>
+          <t>97056A114</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3042,52 +3043,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>DIN 921</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>97056A116</t>
+          <t>97056A115</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -3095,7 +3096,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3130,12 +3131,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>97056A117</t>
+          <t>97056A116</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3148,7 +3149,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3183,7 +3184,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>97056A118</t>
+          <t>97056A117</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3201,7 +3202,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3236,12 +3237,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>97056A119</t>
+          <t>97056A118</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3254,7 +3255,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3289,12 +3290,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>97056A120</t>
+          <t>97056A119</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3307,7 +3308,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3342,12 +3343,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>97056A121</t>
+          <t>97056A120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3360,7 +3361,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3370,12 +3371,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3395,17 +3396,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>97056A122</t>
+          <t>97056A121</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -3413,7 +3414,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3448,12 +3449,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>97056A123</t>
+          <t>97056A122</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3466,7 +3467,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3501,12 +3502,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>97056A124</t>
+          <t>97056A123</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3519,7 +3520,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3554,12 +3555,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>97056A125</t>
+          <t>97056A124</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3572,7 +3573,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3602,17 +3603,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>97056A126</t>
+          <t>97056A125</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3625,7 +3626,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3635,12 +3636,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3660,17 +3661,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>97056A127</t>
+          <t>97056A126</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -3678,7 +3679,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3713,12 +3714,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>97056A128</t>
+          <t>97056A127</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3731,7 +3732,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3766,12 +3767,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>97056A129</t>
+          <t>97056A128</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3784,7 +3785,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3819,12 +3820,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>97056A130</t>
+          <t>97056A129</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3837,55 +3838,108 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DIN 921</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>97056A130</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>DIN 921</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>97056A131</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
